--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="12435" windowHeight="9540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Calendar" sheetId="1" r:id="rId1"/>
+    <sheet name="CTCI" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CTCI!$A$1:$E$106</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="194">
   <si>
     <t>Mon</t>
   </si>
@@ -60,9 +63,6 @@
     <t>13.10-13.11</t>
   </si>
   <si>
-    <t>13.13, C13 Summary</t>
-  </si>
-  <si>
     <t>C13 Sum</t>
   </si>
   <si>
@@ -96,25 +96,511 @@
     <t>15.15,2.1.1</t>
   </si>
   <si>
-    <t>2.1.2-2.1.3</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>2.1.5-2.1.6</t>
-  </si>
-  <si>
-    <t>2.1.7-2.1.8</t>
-  </si>
-  <si>
-    <t>2.1.9</t>
-  </si>
-  <si>
-    <t>2.1.10-2.1.11</t>
-  </si>
-  <si>
-    <t>2.1.12-13</t>
+    <t>2.1.2-2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6-2.1.8</t>
+  </si>
+  <si>
+    <t>2.1.9-2.1.11</t>
+  </si>
+  <si>
+    <t>2.1.12</t>
+  </si>
+  <si>
+    <t>2.1.13-2.1.15</t>
+  </si>
+  <si>
+    <t>2.1.16-2.1.18</t>
+  </si>
+  <si>
+    <t>2.1.19</t>
+  </si>
+  <si>
+    <t>2.1.20-2.1.22</t>
+  </si>
+  <si>
+    <t>2.1.23-2.1.24</t>
+  </si>
+  <si>
+    <t>2.2.1-2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3-2.2.5</t>
+  </si>
+  <si>
+    <t>2.2.6-2.2.7</t>
+  </si>
+  <si>
+    <t>2.2.8-2.2.10</t>
+  </si>
+  <si>
+    <t>2.2.11</t>
+  </si>
+  <si>
+    <t>2.2.12-2.2.14</t>
+  </si>
+  <si>
+    <t>C2 Sum, 3.1</t>
+  </si>
+  <si>
+    <t>3.3-3.4</t>
+  </si>
+  <si>
+    <t>3.5-3.6</t>
+  </si>
+  <si>
+    <t>3.8-3.9</t>
+  </si>
+  <si>
+    <t>3.10-3.11</t>
+  </si>
+  <si>
+    <t>3.13-3.14</t>
+  </si>
+  <si>
+    <t>3.15, C3 Sum</t>
+  </si>
+  <si>
+    <t>13.13, C13 Sum</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t>AVL, RB Tree</t>
+  </si>
+  <si>
+    <t>Trie, Sorting</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayList &amp; Resizable Arrays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StringBuilder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleting a Node from a Singly Linked List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T he "Runner"Technique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive Problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing a Stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing a Queue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of Trees </t>
+  </si>
+  <si>
+    <t>Binary Tree Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Heaps (Min-Heaps and Mox-Heaps) </t>
+  </si>
+  <si>
+    <t>Tries (Prefix Trees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts and Algorithms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation By Hand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Facts and Tricks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two's Complement and Negative Numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic vs.Logical Right Shift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Bit Tasks: Getting and Setting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Talking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop Rules and Patterns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst Cose Shifting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm Approaches </t>
+  </si>
+  <si>
+    <t>How to Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Patterns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive vs.Iterative Solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming &amp; Memoizotion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handling the Questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design: Step-By-Step </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms that Scale: Step-By-Step </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Concepts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no "perfect" system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Sorting Algorithms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching Algorithms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What the Interviewer Is Looking For </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing a Real World Object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing a Piece of Software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing a Function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting Questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge Based </t>
+  </si>
+  <si>
+    <t>Classes and Inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructors and Destructors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Destructor </t>
+  </si>
+  <si>
+    <t>Default Values</t>
+  </si>
+  <si>
+    <t>Operator Overloading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointers and References </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overloading vs.Overriding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection Framework </t>
+  </si>
+  <si>
+    <t>SQL Syntax and Variations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denormalized vs.Normalized Databases </t>
+  </si>
+  <si>
+    <t>SQL Statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Database Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorge Database Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threads in Java </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronization and Locks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadlocks and Deadlock Prevention </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Review Problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XI.Advanced Topics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useful Math </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topological Sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dijkstra's Algorithm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Table Collision Resolution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin-Karp Substring Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVL Trees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red-Black Trees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MapReduce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XII.Code Library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashMapList&lt;T, E&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TreeNode (Binary Search Tree) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedListNode (Linked List) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie &amp; TrieNode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIII.Hints </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hints for Data Structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hints for Concepts and Algorithms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hints for Knowledge-Based Questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hints for Additional Review Problems </t>
+  </si>
+  <si>
+    <t>Creating a Linked List</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Chapter 14 Databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 12 C &amp; C++ </t>
+  </si>
+  <si>
+    <t>Chapter 13 Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 15 Threads &amp; Locks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 10 Sorting &amp; Searching </t>
+  </si>
+  <si>
+    <t>Chapter 11 Testing</t>
+  </si>
+  <si>
+    <t>Chapter 9 System Design &amp; Scalability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 8 Recursion &amp; Dynamic Programming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 7 Object-Oriented Design </t>
+  </si>
+  <si>
+    <t>Chapter 2 Linked Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 1 Arrays &amp; Strings </t>
+  </si>
+  <si>
+    <t>Chapter 3 Stacks and Queues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 4 Trees &amp; Graphs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 5 Bit Manipulation </t>
+  </si>
+  <si>
+    <t>Chapter 6 Math &amp; Logic Puzzles</t>
+  </si>
+  <si>
+    <t>Chapter 17 Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 16 Moderate </t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>28-30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>38-40</t>
+  </si>
+  <si>
+    <t>42-44</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>46-47</t>
+  </si>
+  <si>
+    <t>48-49,61</t>
+  </si>
+  <si>
+    <t>62-63</t>
+  </si>
+  <si>
+    <t>63-64</t>
+  </si>
+  <si>
+    <t>65-67</t>
+  </si>
+  <si>
+    <t>69-70</t>
+  </si>
+  <si>
+    <t>70-71</t>
+  </si>
+  <si>
+    <t>72-74</t>
+  </si>
+  <si>
+    <t>75-76</t>
+  </si>
+  <si>
+    <t>77-78</t>
+  </si>
+  <si>
+    <t>80-82</t>
   </si>
 </sst>
 </file>
@@ -130,15 +616,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,14 +644,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,288 +1019,686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>43654</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>43655</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>43656</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>43657</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>43658</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>43659</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>43660</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>13.2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>13.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>13.12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>12.1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>12.6</v>
       </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F5" s="10">
+        <v>14.1</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>43661</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43662</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43664</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43665</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43666</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>15.9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>15.14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>14.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>43661</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43662</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43663</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43664</v>
-      </c>
-      <c r="F6" s="1">
-        <v>43665</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43666</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>43668</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43669</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43670</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43671</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43672</v>
+      </c>
+      <c r="G10" s="7">
+        <v>43673</v>
+      </c>
+      <c r="H10" s="6">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>15.9</v>
-      </c>
-      <c r="C7">
-        <v>15.14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3.12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>43668</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43669</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43670</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43671</v>
-      </c>
-      <c r="F10" s="1">
-        <v>43672</v>
-      </c>
-      <c r="G10" s="1">
-        <v>43673</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>43675</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43676</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43677</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43678</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43679</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43680</v>
+      </c>
+      <c r="H14" s="6">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>43675</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43676</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43677</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43678</v>
-      </c>
-      <c r="F14" s="1">
-        <v>43679</v>
-      </c>
-      <c r="G14" s="1">
-        <v>43680</v>
-      </c>
-      <c r="H14" s="1">
-        <v>43681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B17" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>43682</v>
+      </c>
+      <c r="C18" s="7">
+        <v>43683</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43684</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43685</v>
+      </c>
+      <c r="F18" s="6">
+        <v>43686</v>
+      </c>
+      <c r="G18" s="7">
+        <v>43687</v>
+      </c>
+      <c r="H18" s="6">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="8">
+        <v>35</v>
+      </c>
+      <c r="C19" s="11">
+        <v>41</v>
+      </c>
+      <c r="D19" s="8">
+        <v>45</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="8">
+        <v>68</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="12">
+        <v>42</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="9">
+        <v>69</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="B21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>43689</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43690</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43691</v>
+      </c>
+      <c r="E22" s="7">
+        <v>43692</v>
+      </c>
+      <c r="F22" s="6">
+        <v>43693</v>
+      </c>
+      <c r="G22" s="7">
+        <v>43694</v>
+      </c>
+      <c r="H22" s="6">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8">
+        <v>79</v>
+      </c>
+      <c r="C23" s="11">
+        <v>84</v>
+      </c>
+      <c r="D23" s="8">
+        <v>86</v>
+      </c>
+      <c r="E23" s="11">
+        <v>87</v>
+      </c>
+      <c r="F23" s="8">
+        <v>88</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="12">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9">
+        <v>86</v>
+      </c>
+      <c r="E24" s="12">
+        <v>88</v>
+      </c>
+      <c r="F24" s="9">
+        <v>88</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10">
+        <v>83</v>
+      </c>
+      <c r="C25" s="13">
+        <v>85</v>
+      </c>
+      <c r="D25" s="10">
+        <v>86</v>
+      </c>
+      <c r="E25" s="13">
+        <v>88</v>
+      </c>
+      <c r="F25" s="10">
+        <v>88</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>43696</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43697</v>
+      </c>
+      <c r="D26" s="6">
+        <v>43698</v>
+      </c>
+      <c r="E26" s="7">
+        <v>43699</v>
+      </c>
+      <c r="F26" s="6">
+        <v>43700</v>
+      </c>
+      <c r="G26" s="7">
+        <v>43701</v>
+      </c>
+      <c r="H26" s="6">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -745,12 +1707,1344 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1">
+        <f>SUM(D2:D106)</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>93</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>103</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>105</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <v>112</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>112</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>113</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>113</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>114</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>117</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>119</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>121</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>122</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>122</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>125</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>126</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>130</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>131</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>131</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>137</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>138</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46">
+        <v>139</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47">
+        <v>140</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48">
+        <v>142</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49">
+        <v>143</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>143</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52">
+        <v>146</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53">
+        <v>149</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>152</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <v>153</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>154</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58">
+        <v>155</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59">
+        <v>156</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60">
+        <v>158</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>50</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="4">
+        <v>158</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>51</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="4">
+        <v>159</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>52</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="4">
+        <v>159</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>53</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="4">
+        <v>160</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>54</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="4">
+        <v>161</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>55</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="4">
+        <v>161</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>56</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="4">
+        <v>162</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>57</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="4">
+        <v>163</v>
+      </c>
+      <c r="D69" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>58</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="4">
+        <v>165</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>59</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="4">
+        <v>165</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>60</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="4">
+        <v>166</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75">
+        <v>169</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76">
+        <v>169</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77">
+        <v>169</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78">
+        <v>171</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79">
+        <v>172</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>66</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="4">
+        <v>174</v>
+      </c>
+      <c r="D81" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>67</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82">
+        <v>176</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83">
+        <v>179</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85">
+        <v>181</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86">
+        <v>186</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88">
+        <v>629</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>72</v>
+      </c>
+      <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89">
+        <v>632</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90">
+        <v>633</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>74</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>636</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>75</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92">
+        <v>636</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93">
+        <v>637</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>77</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94">
+        <v>639</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>78</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95">
+        <v>642</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>79</v>
+      </c>
+      <c r="B96" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96">
+        <v>644</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98">
+        <v>646</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>81</v>
+      </c>
+      <c r="B99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99">
+        <v>647</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100">
+        <v>649</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101">
+        <v>649</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>84</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102">
+        <v>652</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>85</v>
+      </c>
+      <c r="B103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103">
+        <v>653</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>86</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104">
+        <v>662</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>87</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105">
+        <v>676</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>88</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106">
+        <v>679</v>
+      </c>
+      <c r="D106">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
